--- a/uploads/realisasi_strakom.xlsx
+++ b/uploads/realisasi_strakom.xlsx
@@ -118,7 +118,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -143,7 +143,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Program Ungulan Perangkat Daerah Jakarta Barat</t>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
@@ -153,9 +153,7 @@
           <t>Nomor Nota Dinas</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>345542</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -163,11 +161,7 @@
           <t>Tanggal Nota Dinas</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -175,11 +169,7 @@
           <t>Perihal Nota Dinas</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Jakarta Barat Sehat</t>
-        </is>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1"/>
@@ -208,31 +198,6 @@
       <c r="E7" s="1" t="inlineStr">
         <is>
           <t>DOKUMENTASI</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Jakarta Barat Sehat</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Media Cetak. Link Tautan : </t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>http://localhost/renkin_new/uploads/datarealisasi/Logo Provinsi DKI Jakarta (PNG-1080p) - FileVector69.png</t>
         </is>
       </c>
     </row>
